--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Itga1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>58.7393721176585</v>
+        <v>2.436192333333333</v>
       </c>
       <c r="H2">
-        <v>58.7393721176585</v>
+        <v>7.308577</v>
       </c>
       <c r="I2">
-        <v>0.7848261103270938</v>
+        <v>0.03060279702221277</v>
       </c>
       <c r="J2">
-        <v>0.7848261103270938</v>
+        <v>0.03060279702221277</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4975540716186</v>
+        <v>43.28121633333333</v>
       </c>
       <c r="N2">
-        <v>11.4975540716186</v>
+        <v>129.843649</v>
       </c>
       <c r="O2">
-        <v>0.274562014763891</v>
+        <v>0.533749049291363</v>
       </c>
       <c r="P2">
-        <v>0.274562014763891</v>
+        <v>0.533749049291363</v>
       </c>
       <c r="Q2">
-        <v>675.3591070557045</v>
+        <v>105.4413674086081</v>
       </c>
       <c r="R2">
-        <v>675.3591070557045</v>
+        <v>948.9723066774729</v>
       </c>
       <c r="S2">
-        <v>0.2154834380907147</v>
+        <v>0.01633421381626262</v>
       </c>
       <c r="T2">
-        <v>0.2154834380907147</v>
+        <v>0.01633421381626262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>58.7393721176585</v>
+        <v>2.436192333333333</v>
       </c>
       <c r="H3">
-        <v>58.7393721176585</v>
+        <v>7.308577</v>
       </c>
       <c r="I3">
-        <v>0.7848261103270938</v>
+        <v>0.03060279702221277</v>
       </c>
       <c r="J3">
-        <v>0.7848261103270938</v>
+        <v>0.03060279702221277</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.719960352205369</v>
+        <v>9.865038</v>
       </c>
       <c r="N3">
-        <v>9.719960352205369</v>
+        <v>29.595114</v>
       </c>
       <c r="O3">
-        <v>0.2321130112633554</v>
+        <v>0.1216568086527629</v>
       </c>
       <c r="P3">
-        <v>0.2321130112633554</v>
+        <v>0.1216568086527629</v>
       </c>
       <c r="Q3">
-        <v>570.9443680970782</v>
+        <v>24.033129943642</v>
       </c>
       <c r="R3">
-        <v>570.9443680970782</v>
+        <v>216.298169492778</v>
       </c>
       <c r="S3">
-        <v>0.1821683517861282</v>
+        <v>0.003723038621570682</v>
       </c>
       <c r="T3">
-        <v>0.1821683517861282</v>
+        <v>0.003723038621570681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>58.7393721176585</v>
+        <v>2.436192333333333</v>
       </c>
       <c r="H4">
-        <v>58.7393721176585</v>
+        <v>7.308577</v>
       </c>
       <c r="I4">
-        <v>0.7848261103270938</v>
+        <v>0.03060279702221277</v>
       </c>
       <c r="J4">
-        <v>0.7848261103270938</v>
+        <v>0.03060279702221277</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>20.6584678802318</v>
+        <v>1.460025</v>
       </c>
       <c r="N4">
-        <v>20.6584678802318</v>
+        <v>4.380075</v>
       </c>
       <c r="O4">
-        <v>0.4933249739727535</v>
+        <v>0.01800519998536753</v>
       </c>
       <c r="P4">
-        <v>0.4933249739727535</v>
+        <v>0.01800519998536753</v>
       </c>
       <c r="Q4">
-        <v>1213.465432197631</v>
+        <v>3.556901711474999</v>
       </c>
       <c r="R4">
-        <v>1213.465432197631</v>
+        <v>32.012115403275</v>
       </c>
       <c r="S4">
-        <v>0.387174320450251</v>
+        <v>0.0005510094804965509</v>
       </c>
       <c r="T4">
-        <v>0.387174320450251</v>
+        <v>0.0005510094804965509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>16.1044325732654</v>
+        <v>2.436192333333333</v>
       </c>
       <c r="H5">
-        <v>16.1044325732654</v>
+        <v>7.308577</v>
       </c>
       <c r="I5">
-        <v>0.2151738896729062</v>
+        <v>0.03060279702221277</v>
       </c>
       <c r="J5">
-        <v>0.2151738896729062</v>
+        <v>0.03060279702221277</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4975540716186</v>
+        <v>26.482795</v>
       </c>
       <c r="N5">
-        <v>11.4975540716186</v>
+        <v>79.448385</v>
       </c>
       <c r="O5">
-        <v>0.274562014763891</v>
+        <v>0.3265889420705065</v>
       </c>
       <c r="P5">
-        <v>0.274562014763891</v>
+        <v>0.3265889420705065</v>
       </c>
       <c r="Q5">
-        <v>185.1615843038548</v>
+        <v>64.51718214423832</v>
       </c>
       <c r="R5">
-        <v>185.1615843038548</v>
+        <v>580.654639298145</v>
       </c>
       <c r="S5">
-        <v>0.05907857667317634</v>
+        <v>0.009994535103882918</v>
       </c>
       <c r="T5">
-        <v>0.05907857667317634</v>
+        <v>0.009994535103882918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.1044325732654</v>
+        <v>59.66900866666666</v>
       </c>
       <c r="H6">
-        <v>16.1044325732654</v>
+        <v>179.007026</v>
       </c>
       <c r="I6">
-        <v>0.2151738896729062</v>
+        <v>0.7495461404084495</v>
       </c>
       <c r="J6">
-        <v>0.2151738896729062</v>
+        <v>0.7495461404084496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.719960352205369</v>
+        <v>43.28121633333333</v>
       </c>
       <c r="N6">
-        <v>9.719960352205369</v>
+        <v>129.843649</v>
       </c>
       <c r="O6">
-        <v>0.2321130112633554</v>
+        <v>0.533749049291363</v>
       </c>
       <c r="P6">
-        <v>0.2321130112633554</v>
+        <v>0.533749049291363</v>
       </c>
       <c r="Q6">
-        <v>156.5344461069044</v>
+        <v>2582.547272497542</v>
       </c>
       <c r="R6">
-        <v>156.5344461069044</v>
+        <v>23242.92545247787</v>
       </c>
       <c r="S6">
-        <v>0.04994465947722728</v>
+        <v>0.4000695398430204</v>
       </c>
       <c r="T6">
-        <v>0.04994465947722728</v>
+        <v>0.4000695398430205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.1044325732654</v>
+        <v>59.66900866666666</v>
       </c>
       <c r="H7">
-        <v>16.1044325732654</v>
+        <v>179.007026</v>
       </c>
       <c r="I7">
-        <v>0.2151738896729062</v>
+        <v>0.7495461404084495</v>
       </c>
       <c r="J7">
-        <v>0.2151738896729062</v>
+        <v>0.7495461404084496</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.6584678802318</v>
+        <v>9.865038</v>
       </c>
       <c r="N7">
-        <v>20.6584678802318</v>
+        <v>29.595114</v>
       </c>
       <c r="O7">
-        <v>0.4933249739727535</v>
+        <v>0.1216568086527629</v>
       </c>
       <c r="P7">
-        <v>0.4933249739727535</v>
+        <v>0.1216568086527629</v>
       </c>
       <c r="Q7">
-        <v>332.692903044162</v>
+        <v>588.6370379189959</v>
       </c>
       <c r="R7">
-        <v>332.692903044162</v>
+        <v>5297.733341270964</v>
       </c>
       <c r="S7">
-        <v>0.1061506535225026</v>
+        <v>0.09118739138008769</v>
       </c>
       <c r="T7">
-        <v>0.1061506535225026</v>
+        <v>0.0911873913800877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>59.66900866666666</v>
+      </c>
+      <c r="H8">
+        <v>179.007026</v>
+      </c>
+      <c r="I8">
+        <v>0.7495461404084495</v>
+      </c>
+      <c r="J8">
+        <v>0.7495461404084496</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.460025</v>
+      </c>
+      <c r="N8">
+        <v>4.380075</v>
+      </c>
+      <c r="O8">
+        <v>0.01800519998536753</v>
+      </c>
+      <c r="P8">
+        <v>0.01800519998536753</v>
+      </c>
+      <c r="Q8">
+        <v>87.11824437854999</v>
+      </c>
+      <c r="R8">
+        <v>784.0641994069499</v>
+      </c>
+      <c r="S8">
+        <v>0.0134957281563145</v>
+      </c>
+      <c r="T8">
+        <v>0.0134957281563145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>59.66900866666666</v>
+      </c>
+      <c r="H9">
+        <v>179.007026</v>
+      </c>
+      <c r="I9">
+        <v>0.7495461404084495</v>
+      </c>
+      <c r="J9">
+        <v>0.7495461404084496</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>26.482795</v>
+      </c>
+      <c r="N9">
+        <v>79.448385</v>
+      </c>
+      <c r="O9">
+        <v>0.3265889420705065</v>
+      </c>
+      <c r="P9">
+        <v>0.3265889420705065</v>
+      </c>
+      <c r="Q9">
+        <v>1580.202124372556</v>
+      </c>
+      <c r="R9">
+        <v>14221.81911935301</v>
+      </c>
+      <c r="S9">
+        <v>0.2447934810290269</v>
+      </c>
+      <c r="T9">
+        <v>0.2447934810290269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03876633333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.116299</v>
+      </c>
+      <c r="I10">
+        <v>0.000486972319082952</v>
+      </c>
+      <c r="J10">
+        <v>0.000486972319082952</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>43.28121633333333</v>
+      </c>
+      <c r="N10">
+        <v>129.843649</v>
+      </c>
+      <c r="O10">
+        <v>0.533749049291363</v>
+      </c>
+      <c r="P10">
+        <v>0.533749049291363</v>
+      </c>
+      <c r="Q10">
+        <v>1.677854059450111</v>
+      </c>
+      <c r="R10">
+        <v>15.100686535051</v>
+      </c>
+      <c r="S10">
+        <v>0.0002599210123417359</v>
+      </c>
+      <c r="T10">
+        <v>0.0002599210123417359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.03876633333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.116299</v>
+      </c>
+      <c r="I11">
+        <v>0.000486972319082952</v>
+      </c>
+      <c r="J11">
+        <v>0.000486972319082952</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.865038</v>
+      </c>
+      <c r="N11">
+        <v>29.595114</v>
+      </c>
+      <c r="O11">
+        <v>0.1216568086527629</v>
+      </c>
+      <c r="P11">
+        <v>0.1216568086527629</v>
+      </c>
+      <c r="Q11">
+        <v>0.382431351454</v>
+      </c>
+      <c r="R11">
+        <v>3.441882163086</v>
+      </c>
+      <c r="S11">
+        <v>5.924349824186689E-05</v>
+      </c>
+      <c r="T11">
+        <v>5.924349824186688E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.03876633333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.116299</v>
+      </c>
+      <c r="I12">
+        <v>0.000486972319082952</v>
+      </c>
+      <c r="J12">
+        <v>0.000486972319082952</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.460025</v>
+      </c>
+      <c r="N12">
+        <v>4.380075</v>
+      </c>
+      <c r="O12">
+        <v>0.01800519998536753</v>
+      </c>
+      <c r="P12">
+        <v>0.01800519998536753</v>
+      </c>
+      <c r="Q12">
+        <v>0.056599815825</v>
+      </c>
+      <c r="R12">
+        <v>0.5093983424249999</v>
+      </c>
+      <c r="S12">
+        <v>8.768033992426759E-06</v>
+      </c>
+      <c r="T12">
+        <v>8.768033992426759E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03876633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.116299</v>
+      </c>
+      <c r="I13">
+        <v>0.000486972319082952</v>
+      </c>
+      <c r="J13">
+        <v>0.000486972319082952</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.482795</v>
+      </c>
+      <c r="N13">
+        <v>79.448385</v>
+      </c>
+      <c r="O13">
+        <v>0.3265889420705065</v>
+      </c>
+      <c r="P13">
+        <v>0.3265889420705065</v>
+      </c>
+      <c r="Q13">
+        <v>1.026640858568333</v>
+      </c>
+      <c r="R13">
+        <v>9.239767727115</v>
+      </c>
+      <c r="S13">
+        <v>0.0001590397745069224</v>
+      </c>
+      <c r="T13">
+        <v>0.0001590397745069224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.46288466666667</v>
+      </c>
+      <c r="H14">
+        <v>52.388654</v>
+      </c>
+      <c r="I14">
+        <v>0.2193640902502547</v>
+      </c>
+      <c r="J14">
+        <v>0.2193640902502547</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>43.28121633333333</v>
+      </c>
+      <c r="N14">
+        <v>129.843649</v>
+      </c>
+      <c r="O14">
+        <v>0.533749049291363</v>
+      </c>
+      <c r="P14">
+        <v>0.533749049291363</v>
+      </c>
+      <c r="Q14">
+        <v>755.8148890620496</v>
+      </c>
+      <c r="R14">
+        <v>6802.334001558446</v>
+      </c>
+      <c r="S14">
+        <v>0.1170853746197382</v>
+      </c>
+      <c r="T14">
+        <v>0.1170853746197382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.46288466666667</v>
+      </c>
+      <c r="H15">
+        <v>52.388654</v>
+      </c>
+      <c r="I15">
+        <v>0.2193640902502547</v>
+      </c>
+      <c r="J15">
+        <v>0.2193640902502547</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.865038</v>
+      </c>
+      <c r="N15">
+        <v>29.595114</v>
+      </c>
+      <c r="O15">
+        <v>0.1216568086527629</v>
+      </c>
+      <c r="P15">
+        <v>0.1216568086527629</v>
+      </c>
+      <c r="Q15">
+        <v>172.272020826284</v>
+      </c>
+      <c r="R15">
+        <v>1550.448187436556</v>
+      </c>
+      <c r="S15">
+        <v>0.02668713515286264</v>
+      </c>
+      <c r="T15">
+        <v>0.02668713515286264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.46288466666667</v>
+      </c>
+      <c r="H16">
+        <v>52.388654</v>
+      </c>
+      <c r="I16">
+        <v>0.2193640902502547</v>
+      </c>
+      <c r="J16">
+        <v>0.2193640902502547</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.460025</v>
+      </c>
+      <c r="N16">
+        <v>4.380075</v>
+      </c>
+      <c r="O16">
+        <v>0.01800519998536753</v>
+      </c>
+      <c r="P16">
+        <v>0.01800519998536753</v>
+      </c>
+      <c r="Q16">
+        <v>25.49624818545</v>
+      </c>
+      <c r="R16">
+        <v>229.46623366905</v>
+      </c>
+      <c r="S16">
+        <v>0.003949694314564047</v>
+      </c>
+      <c r="T16">
+        <v>0.003949694314564047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.46288466666667</v>
+      </c>
+      <c r="H17">
+        <v>52.388654</v>
+      </c>
+      <c r="I17">
+        <v>0.2193640902502547</v>
+      </c>
+      <c r="J17">
+        <v>0.2193640902502547</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.482795</v>
+      </c>
+      <c r="N17">
+        <v>79.448385</v>
+      </c>
+      <c r="O17">
+        <v>0.3265889420705065</v>
+      </c>
+      <c r="P17">
+        <v>0.3265889420705065</v>
+      </c>
+      <c r="Q17">
+        <v>462.4659947359767</v>
+      </c>
+      <c r="R17">
+        <v>4162.19395262379</v>
+      </c>
+      <c r="S17">
+        <v>0.07164188616308979</v>
+      </c>
+      <c r="T17">
+        <v>0.07164188616308979</v>
       </c>
     </row>
   </sheetData>
